--- a/Technology/Hardware/Celestica.xlsx
+++ b/Technology/Hardware/Celestica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07EC8D5-0A2F-334B-9D92-01689D2B7219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE9A45-8C03-2649-ABC7-E6C8C108C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,12 +1315,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1341,12 +1335,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1502,9 +1490,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,11 +1519,26 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1565,16 +1565,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
@@ -1589,22 +1591,24 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.8470000000000006E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1731,12 +1735,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>37.58</v>
-    <v>12.2</v>
-    <v>2.2427999999999999</v>
-    <v>-1.29</v>
-    <v>-3.4705E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>12.48</v>
+    <v>2.2382</v>
+    <v>-0.35</v>
+    <v>-9.7929999999999996E-3</v>
+    <v>0.26</v>
+    <v>7.3470000000000002E-3</v>
     <v>CAD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1744,25 +1748,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>37.380000000000003</v>
+    <v>35.770000000000003</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45217.844270833331</v>
+    <v>45219.833333333336</v>
     <v>0</v>
-    <v>35.78</v>
-    <v>4449375000</v>
+    <v>34.770000000000003</v>
+    <v>4266595000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>36.79</v>
-    <v>19.62</v>
-    <v>37.17</v>
-    <v>35.880000000000003</v>
-    <v>35.880000000000003</v>
+    <v>35.65</v>
+    <v>19.54</v>
+    <v>35.74</v>
+    <v>35.39</v>
+    <v>35.65</v>
     <v>119352600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XTSE:CLS)</v>
-    <v>337133</v>
-    <v>390440</v>
+    <v>411795</v>
+    <v>375230</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1786,11 +1790,11 @@
     <v>Powered by Refinitiv</v>
     <v>27.58</v>
     <v>9.07</v>
-    <v>2.2427999999999999</v>
-    <v>-1.08</v>
-    <v>-3.9604E-2</v>
-    <v>0.41</v>
-    <v>1.5654999999999999E-2</v>
+    <v>2.2382</v>
+    <v>-0.24</v>
+    <v>-9.2130000000000007E-3</v>
+    <v>0.19</v>
+    <v>7.3609999999999995E-3</v>
     <v>USD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1798,25 +1802,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>27.33</v>
+    <v>26.17</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45217.999332395309</v>
+    <v>45219.999787499997</v>
     <v>3</v>
-    <v>26.11</v>
-    <v>4449375000</v>
+    <v>25.371200000000002</v>
+    <v>4266595000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>27</v>
-    <v>18.953099999999999</v>
-    <v>27.27</v>
-    <v>26.19</v>
-    <v>26.6</v>
+    <v>25.97</v>
+    <v>18.851800000000001</v>
+    <v>26.05</v>
+    <v>25.81</v>
+    <v>26</v>
     <v>119352600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
-    <v>1158396</v>
-    <v>1730950</v>
+    <v>1722986</v>
+    <v>1709121</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2015,9 +2019,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2472,20 +2476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2689,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>1939400000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>1754800000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>1754800000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>184600000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>58</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>93300000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -3245,7 +3249,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3392,7 +3396,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>91300000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>59</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>65700000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -4123,7 +4127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>55500000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>55500000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>44</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>55500000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>60</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>2.779017857142857E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>55500000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>120300000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>120300000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>130700000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>91300000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>91300000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>73674</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>4196600000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
@@ -5875,7 +5879,7 @@
         <v>360700000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>360700000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -6052,7 +6056,7 @@
         <v>1310900000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
@@ -6111,7 +6115,7 @@
         <v>1303700000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>2345600000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>2345600000</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -6701,7 +6705,7 @@
         <v>179400000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -6819,7 +6823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
@@ -6996,7 +7000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>1303900000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>531300000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>531300000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>772600000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>648600000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>321600000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>327000000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
@@ -7763,7 +7767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>124000000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>5500500000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>2849800000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
@@ -7999,7 +8003,7 @@
         <v>1276700000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
@@ -8058,7 +8062,7 @@
         <v>63100000</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
@@ -8176,7 +8180,7 @@
         <v>1510000000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>105</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>65400000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>65400000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
@@ -8353,7 +8357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -8471,7 +8475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
@@ -8707,7 +8711,7 @@
         <v>2936000000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>718000000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>718000000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>165900000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
@@ -9061,7 +9065,7 @@
         <v>80200000</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
@@ -9356,7 +9360,7 @@
         <v>883900000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>3819900000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
@@ -9533,7 +9537,7 @@
         <v>2719600000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
@@ -9592,7 +9596,7 @@
         <v>1677800000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>126</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>1041800000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
@@ -9710,7 +9714,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>128</v>
       </c>
@@ -9769,7 +9773,7 @@
         <v>-996400000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>129</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>-14800000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>130</v>
       </c>
@@ -9887,7 +9891,7 @@
         <v>1680600000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>131</v>
       </c>
@@ -9946,7 +9950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>132</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>1680600000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>133</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>5500500000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>134</v>
       </c>
@@ -10205,7 +10209,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>135</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>136</v>
       </c>
@@ -10323,7 +10327,7 @@
         <v>422700000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>137</v>
       </c>
@@ -10382,7 +10386,7 @@
         <v>25.15</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>138</v>
       </c>
@@ -10441,7 +10445,7 @@
         <v>21.27</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>139</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>140</v>
       </c>
@@ -10559,7 +10563,7 @@
         <v>104.93</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>141</v>
       </c>
@@ -10618,7 +10622,7 @@
         <v>26324</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>24</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>142</v>
       </c>
@@ -10736,7 +10740,7 @@
         <v>55500000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>143</v>
       </c>
@@ -10795,7 +10799,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>144</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>145</v>
       </c>
@@ -11001,7 +11005,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>146</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>147</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>148</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>-16400000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>149</v>
       </c>
@@ -11237,7 +11241,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>150</v>
       </c>
@@ -11296,7 +11300,7 @@
         <v>-43700000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>151</v>
       </c>
@@ -11355,7 +11359,7 @@
         <v>57700000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>152</v>
       </c>
@@ -11414,7 +11418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>153</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>-4100000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>154</v>
       </c>
@@ -11532,7 +11536,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>155</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>156</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>130200000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>157</v>
       </c>
@@ -11709,7 +11713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>158</v>
       </c>
@@ -11768,7 +11772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
@@ -11827,7 +11831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
@@ -11886,7 +11890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>-64200000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
@@ -12004,7 +12008,7 @@
         <v>-32100000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
@@ -12063,7 +12067,7 @@
         <v>-32100000</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>164</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>165</v>
       </c>
@@ -12181,7 +12185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>166</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>167</v>
       </c>
@@ -12299,7 +12303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>168</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>169</v>
       </c>
@@ -12417,7 +12421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>170</v>
       </c>
@@ -12476,7 +12480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>171</v>
       </c>
@@ -12535,7 +12539,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>155</v>
       </c>
@@ -12594,7 +12598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
@@ -12653,7 +12657,7 @@
         <v>-31200000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
@@ -12712,7 +12716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
@@ -12771,7 +12775,7 @@
         <v>-17400000</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
@@ -12889,7 +12893,7 @@
         <v>-17400000</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>177</v>
       </c>
@@ -12948,7 +12952,7 @@
         <v>-15000000</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
@@ -13007,7 +13011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>179</v>
       </c>
@@ -13066,7 +13070,7 @@
         <v>-15000000</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
@@ -13125,7 +13129,7 @@
         <v>-24600000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>155</v>
       </c>
@@ -13184,7 +13188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>-57000000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
@@ -13302,7 +13306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
@@ -13361,7 +13365,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>54</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>130700000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>55</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -13538,7 +13542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -13597,7 +13601,7 @@
         <v>66000000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>186</v>
       </c>
@@ -15538,7 +15542,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="3"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>187</v>
       </c>
@@ -15597,7 +15601,7 @@
         <v>80700000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>188</v>
       </c>
@@ -15656,7 +15660,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>189</v>
       </c>
@@ -15715,7 +15719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>190</v>
       </c>
@@ -15774,12 +15778,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="ROIC AI" display="ROIC AI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15796,7 +15797,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15804,48 +15805,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="2">
+    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+    </row>
+    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4449375000</v>
+        <v>4266595000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -15873,7 +15874,7 @@
       </c>
       <c r="I3" s="40">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3813789720.5493164</v>
+        <v>3891009486.7427349</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>205</v>
@@ -15881,222 +15882,222 @@
       <c r="K3" s="41"/>
       <c r="L3" s="42"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="45"/>
+      <c r="O3" s="114"/>
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="44">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-422700000</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="46">
         <f>Financials!O17*0.01</f>
         <v>4.1299999999999996E-2</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <f>SUM(C13:E13)/3</f>
         <v>0.32564211745324989</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="48">
         <f>A5*(1+(5*G3))</f>
         <v>102753407.70121098</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="50">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>3257108484.3241839</v>
-      </c>
-      <c r="J4" s="49" t="s">
+        <v>3325128009.1848397</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="39" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.9604E-2</v>
+        <v>-9.2130000000000007E-3</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="43"/>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="54"/>
+      <c r="O4" s="116"/>
       <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" cm="1">
+      <c r="A5" s="48" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>119352600</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="51">
         <f>Financials!O34*0.01</f>
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <f>SUM(C15:E15)/3</f>
         <v>9.754758650968183E-2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="48">
         <f>Financials!O56</f>
         <v>360700000</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>2834408484.3241839</v>
-      </c>
-      <c r="J5" s="49" t="s">
+        <v>2902428009.1848397</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="56" cm="1">
+      <c r="K5" s="52" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>26.19</v>
-      </c>
-      <c r="L5" s="47" t="s">
+        <v>25.81</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="43"/>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="54">
         <f>Financials!O21</f>
         <v>80600000</v>
       </c>
       <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>0.5647848438690023</v>
-      </c>
-      <c r="B6" s="47" t="s">
+        <v>0.54158352373698904</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="46">
         <f>Financials!O190</f>
         <v>2.1394933166302903E-2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <f>Financials!O33/Financials!O126</f>
         <v>0.10014280614066405</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="50">
         <f>Financials!O96+Financials!O105</f>
         <v>783400000</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="57">
         <f>N25</f>
-        <v>0.12041034683673893</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>0.11851686271641787</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>27.584569190796575</v>
-      </c>
-      <c r="L6" s="63" t="s">
+        <v>28.24653774621855</v>
+      </c>
+      <c r="L6" s="59" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="43"/>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="61">
         <f>Financials!O96</f>
         <v>65400000</v>
       </c>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>16.280186608122943</v>
-      </c>
-      <c r="B7" s="67" t="s">
+        <v>15.611397731430662</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="64">
         <f>F14/O21</f>
-        <v>4.2042702008016776E-2</v>
-      </c>
-      <c r="D7" s="69" t="s">
+        <v>4.3564399568712442E-2</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="66">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>9.731128246753247E-2</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="67">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.46614304415089847</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="69">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>5.3248155433240685E-2</v>
-      </c>
-      <c r="L7" s="76" t="s">
+        <v>9.4402857273093721E-2</v>
+      </c>
+      <c r="L7" s="72" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="43"/>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="61">
         <f>Financials!O105</f>
         <v>718000000</v>
       </c>
       <c r="P7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -16109,662 +16110,662 @@
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="75">
         <f>O5/(O6+O7)</f>
         <v>0.10288486086290528</v>
       </c>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77">
         <v>2019</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="77">
         <v>2020</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="77">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="77">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="78">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="79">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="79">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="79">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="79">
         <v>2027</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="64" t="s">
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="61">
         <f>Financials!O25</f>
         <v>58300000</v>
       </c>
       <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="83">
         <v>5888300000</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="83">
         <v>5748100000</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="83">
         <v>5634700000</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="83">
         <v>7250000000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="84">
         <v>7878000000</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="83">
         <v>8257000000</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="83">
         <v>8474000000</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="83">
         <v>8643000000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="83">
         <v>8816000000</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="61">
         <f>Financials!O24</f>
         <v>226600000</v>
       </c>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-2.3809928162627614E-2</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="87">
         <f t="shared" si="0"/>
         <v>-1.9728258033089197E-2</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="87">
         <f t="shared" si="0"/>
         <v>0.28667009778692742</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="88">
         <f t="shared" si="0"/>
         <v>8.6620689655172445E-2</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="87">
         <f t="shared" si="0"/>
         <v>4.810865701954814E-2</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="87">
         <f t="shared" si="0"/>
         <v>2.6280731500544885E-2</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="87">
         <f t="shared" si="0"/>
         <v>1.9943356148218072E-2</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="87">
         <f t="shared" si="0"/>
         <v>2.0016198079370495E-2</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="89">
         <f>SUM(F11:J11)/5</f>
         <v>4.019392648057081E-2</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="64" t="s">
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="90">
         <f>O9/O10</f>
         <v>0.25728155339805825</v>
       </c>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="83">
         <v>70300000</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="83">
         <v>60600000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="83">
         <v>103900000</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="83">
         <v>145500000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="84">
         <v>273300000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="83">
         <v>299000000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="83">
         <v>283000000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="83">
         <v>289000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="83">
         <v>295000000</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="95" t="s">
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="96">
+      <c r="O12" s="92">
         <f>O8*(1-O11)</f>
         <v>7.6414484038953928E-2</v>
       </c>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.13798008534850636</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="87">
         <f t="shared" si="1"/>
         <v>0.71452145214521456</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="87">
         <f t="shared" si="1"/>
         <v>0.40038498556304147</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="88">
         <f t="shared" si="1"/>
         <v>0.87835051546391751</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="87">
         <f t="shared" si="1"/>
         <v>9.4035858031467301E-2</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="87">
         <f t="shared" si="1"/>
         <v>-5.3511705685618693E-2</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="87">
         <f t="shared" si="1"/>
         <v>2.1201413427561766E-2</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="87">
         <f t="shared" si="1"/>
         <v>2.076124567474058E-2</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="89">
         <f>SUM(F13:J13)/5</f>
         <v>0.19216746538241369</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="53" t="s">
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="54"/>
+      <c r="O13" s="116"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="83">
         <v>133125890</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="83">
         <v>150057077</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="83">
         <v>174962000</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="83">
         <v>174873000</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="84">
         <v>220000000</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="83">
         <v>302000000</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="83">
         <v>335000000</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="83">
         <v>348000000</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="83">
         <v>355000000</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="64" t="s">
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="94">
+      <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8470000000000006E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91">
+      <c r="A15" s="93"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>0.12718177508522199</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="87">
         <f t="shared" si="2"/>
         <v>0.16596966632903287</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="87">
         <f t="shared" si="2"/>
         <v>-5.0868188520936108E-4</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="88">
         <f t="shared" si="2"/>
         <v>0.25805584624270184</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="87">
         <f t="shared" si="2"/>
         <v>0.3727272727272728</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="87">
         <f t="shared" si="2"/>
         <v>0.10927152317880795</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="87">
         <f t="shared" si="2"/>
         <v>3.8805970149253799E-2</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="87">
         <f t="shared" si="2"/>
         <v>2.0114942528735691E-2</v>
       </c>
-      <c r="K15" s="93">
+      <c r="K15" s="89">
         <f>SUM(F15:J15)/5</f>
         <v>0.15979511096535443</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="64" t="s">
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="98" cm="1">
+      <c r="O15" s="94" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2427999999999999</v>
+        <v>2.2382</v>
       </c>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="95">
         <v>3.6279137670932896E-2</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="95">
         <v>5.6920146373251795E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="95">
         <v>5.9138832284929568E-2</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="95">
         <v>8.2190112833833914E-2</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="64" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="94">
+      <c r="O16" s="90">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="105">
+      <c r="O17" s="101">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12815668399999999</v>
+        <v>0.12624738400000002</v>
       </c>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="53" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="54"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="str" cm="1">
+      <c r="A19" s="117" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Electronic Equipment &amp; Parts</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="117" cm="1">
+      <c r="B19" s="117"/>
+      <c r="C19" s="118" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="64" t="s">
+      <c r="D19" s="118"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="108">
+      <c r="O19" s="103">
         <f>O6+O7</f>
         <v>783400000</v>
       </c>
       <c r="P19" s="43"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="str" cm="1">
+      <c r="A20" s="112" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="64" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="108" cm="1">
+      <c r="O20" s="103" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>4449375000</v>
+        <v>4266595000</v>
       </c>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="64" t="s">
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="108">
+      <c r="O21" s="103">
         <f>O19+O20</f>
-        <v>5232775000</v>
+        <v>5049995000</v>
       </c>
       <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="109">
+      <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>0.14971023978672884</v>
+        <v>0.15512886646422422</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="104" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="110">
+      <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.85028976021327118</v>
+        <v>0.84487113353577581</v>
       </c>
       <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="111" t="s">
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="112"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="113">
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.12041034683673893</v>
-      </c>
-      <c r="O25" s="114"/>
+        <v>0.11851686271641787</v>
+      </c>
+      <c r="O25" s="109"/>
       <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="43"/>
       <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
       <c r="O27" s="43"/>
       <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="43"/>
       <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
     </row>
@@ -16805,526 +16806,526 @@
       <c r="P32" s="43"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="81"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="43"/>

--- a/Technology/Hardware/Celestica.xlsx
+++ b/Technology/Hardware/Celestica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE9A45-8C03-2649-ABC7-E6C8C108C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75F8F5-EDE9-994D-A1C5-FD6DA7296253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1396,9 +1396,6 @@
     <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="14"/>
-    </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1540,6 +1537,9 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,6 +1568,7 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
@@ -1591,14 +1592,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1609,6 +1610,7 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1735,12 +1737,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>37.58</v>
-    <v>12.48</v>
-    <v>2.2382</v>
-    <v>-0.35</v>
-    <v>-9.7929999999999996E-3</v>
-    <v>0.26</v>
-    <v>7.3470000000000002E-3</v>
+    <v>14.15</v>
+    <v>2.2155</v>
+    <v>-0.75</v>
+    <v>-2.1007999999999999E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>CAD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1748,25 +1750,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>35.770000000000003</v>
+    <v>36.01</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45219.833333333336</v>
+    <v>45224.844201388885</v>
     <v>0</v>
-    <v>34.770000000000003</v>
-    <v>4266595000</v>
+    <v>34.64</v>
+    <v>4275828000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>35.65</v>
-    <v>19.54</v>
-    <v>35.74</v>
-    <v>35.39</v>
-    <v>35.65</v>
+    <v>36</v>
+    <v>19.11</v>
+    <v>35.700000000000003</v>
+    <v>34.950000000000003</v>
+    <v>34.950000000000003</v>
     <v>119352600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XTSE:CLS)</v>
-    <v>411795</v>
-    <v>375230</v>
+    <v>474575</v>
+    <v>391670</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1776,25 +1778,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1pv77&amp;q=XNYS%3aCLS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="3">
+    <v>5</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
     <v>2</v>
-    <v>5</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>6</v>
+    <v>7</v>
     <v>en-US</v>
     <v>a1pv77</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>27.58</v>
-    <v>9.07</v>
-    <v>2.2382</v>
-    <v>-0.24</v>
-    <v>-9.2130000000000007E-3</v>
-    <v>0.19</v>
-    <v>7.3609999999999995E-3</v>
+    <v>10.33</v>
+    <v>2.2155</v>
+    <v>-0.7</v>
+    <v>-2.6912999999999999E-2</v>
     <v>USD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1802,25 +1802,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>26.17</v>
+    <v>26.19</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45219.999787499997</v>
+    <v>45224.99993774297</v>
     <v>3</v>
-    <v>25.371200000000002</v>
-    <v>4266595000</v>
+    <v>25.11</v>
+    <v>4275828000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>25.97</v>
-    <v>18.851800000000001</v>
-    <v>26.05</v>
-    <v>25.81</v>
-    <v>26</v>
+    <v>26.15</v>
+    <v>18.316299999999998</v>
+    <v>26.01</v>
+    <v>25.31</v>
     <v>119352600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
-    <v>1722986</v>
-    <v>1709121</v>
+    <v>16</v>
+    <v>1825691</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1830,7 +1829,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -1885,12 +1884,56 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -1938,8 +1981,52 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="8">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1990,7 +2077,12 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2011,26 +2103,20 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
     </spb>
-    <spb s="5">
-      <v>at close</v>
+    <spb s="6">
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2082,14 +2168,33 @@
     <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15797,7 +15902,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15805,48 +15910,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="e" vm="2">
+    <row r="1" spans="1:16" s="110" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="109" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+    </row>
+    <row r="2" spans="1:16" s="110" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4266595000</v>
+        <v>4275828000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -15874,7 +15979,7 @@
       </c>
       <c r="I3" s="40">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3891009486.7427349</v>
+        <v>3854740340.904171</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>205</v>
@@ -15882,10 +15987,10 @@
       <c r="K3" s="41"/>
       <c r="L3" s="42"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="114"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15919,23 +16024,23 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>3325128009.1848397</v>
+        <v>3293179058.0466838</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="39" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-9.2130000000000007E-3</v>
+        <v>-2.6912999999999999E-2</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="43"/>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15969,14 +16074,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>2902428009.1848397</v>
+        <v>2870479058.0466838</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="52" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>25.81</v>
+        <v>25.31</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>219</v>
@@ -15994,7 +16099,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>0.54158352373698904</v>
+        <v>0.54275552170601671</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>221</v>
@@ -16022,14 +16127,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>0.11851686271641787</v>
+        <v>0.11939676030542933</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>28.24653774621855</v>
+        <v>27.935609360942436</v>
       </c>
       <c r="L6" s="59" t="s">
         <v>225</v>
@@ -16047,14 +16152,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>15.611397731430662</v>
+        <v>15.645181119648738</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="64">
         <f>F14/O21</f>
-        <v>4.3564399568712442E-2</v>
+        <v>4.3484895323950612E-2</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>228</v>
@@ -16079,11 +16184,11 @@
       <c r="J7" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="118">
         <f>K6/K5-1</f>
-        <v>9.4402857273093721E-2</v>
-      </c>
-      <c r="L7" s="72" t="s">
+        <v>0.10373802295307932</v>
+      </c>
+      <c r="L7" s="71" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="43"/>
@@ -16097,7 +16202,7 @@
       <c r="P7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -16110,47 +16215,47 @@
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
-      <c r="N8" s="74" t="s">
+      <c r="N8" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="74">
         <f>O5/(O6+O7)</f>
         <v>0.10288486086290528</v>
       </c>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76">
         <v>2019</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="76">
         <v>2020</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="76">
         <v>2021</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>2022</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="77">
         <v>2023</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="78">
         <v>2024</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="78">
         <v>2025</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="78">
         <v>2026</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="78">
         <v>2027</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="60" t="s">
         <v>233</v>
       </c>
@@ -16161,37 +16266,37 @@
       <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="82">
         <v>5888300000</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="82">
         <v>5748100000</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="82">
         <v>5634700000</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="82">
         <v>7250000000</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="83">
         <v>7878000000</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="82">
         <v>8257000000</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="82">
         <v>8474000000</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="82">
         <v>8643000000</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="82">
         <v>8816000000</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="84" t="s">
         <v>235</v>
       </c>
       <c r="N10" s="60" t="s">
@@ -16204,568 +16309,568 @@
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-2.3809928162627614E-2</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="86">
         <f t="shared" si="0"/>
         <v>-1.9728258033089197E-2</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="86">
         <f t="shared" si="0"/>
         <v>0.28667009778692742</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="87">
         <f t="shared" si="0"/>
         <v>8.6620689655172445E-2</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="86">
         <f t="shared" si="0"/>
         <v>4.810865701954814E-2</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="86">
         <f t="shared" si="0"/>
         <v>2.6280731500544885E-2</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="86">
         <f t="shared" si="0"/>
         <v>1.9943356148218072E-2</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="86">
         <f t="shared" si="0"/>
         <v>2.0016198079370495E-2</v>
       </c>
-      <c r="K11" s="89">
+      <c r="K11" s="88">
         <f>SUM(F11:J11)/5</f>
         <v>4.019392648057081E-2</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="89">
         <f>O9/O10</f>
         <v>0.25728155339805825</v>
       </c>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <v>70300000</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="82">
         <v>60600000</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="82">
         <v>103900000</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="82">
         <v>145500000</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="83">
         <v>273300000</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="82">
         <v>299000000</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="82">
         <v>283000000</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="82">
         <v>289000000</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="82">
         <v>295000000</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="91" t="s">
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="91">
         <f>O8*(1-O11)</f>
         <v>7.6414484038953928E-2</v>
       </c>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87">
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.13798008534850636</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="86">
         <f t="shared" si="1"/>
         <v>0.71452145214521456</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="86">
         <f t="shared" si="1"/>
         <v>0.40038498556304147</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="87">
         <f t="shared" si="1"/>
         <v>0.87835051546391751</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="86">
         <f t="shared" si="1"/>
         <v>9.4035858031467301E-2</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="86">
         <f t="shared" si="1"/>
         <v>-5.3511705685618693E-2</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="86">
         <f t="shared" si="1"/>
         <v>2.1201413427561766E-2</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="86">
         <f t="shared" si="1"/>
         <v>2.076124567474058E-2</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="88">
         <f>SUM(F13:J13)/5</f>
         <v>0.19216746538241369</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="115" t="s">
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="116"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="82">
         <v>133125890</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="82">
         <v>150057077</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="82">
         <v>174962000</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="82">
         <v>174873000</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="83">
         <v>220000000</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="82">
         <v>302000000</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="82">
         <v>335000000</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="82">
         <v>348000000</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="82">
         <v>355000000</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87">
+      <c r="A15" s="92"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>0.12718177508522199</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="86">
         <f t="shared" si="2"/>
         <v>0.16596966632903287</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="86">
         <f t="shared" si="2"/>
         <v>-5.0868188520936108E-4</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="87">
         <f t="shared" si="2"/>
         <v>0.25805584624270184</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="86">
         <f t="shared" si="2"/>
         <v>0.3727272727272728</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="86">
         <f t="shared" si="2"/>
         <v>0.10927152317880795</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="86">
         <f t="shared" si="2"/>
         <v>3.8805970149253799E-2</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="86">
         <f t="shared" si="2"/>
         <v>2.0114942528735691E-2</v>
       </c>
-      <c r="K15" s="89">
+      <c r="K15" s="88">
         <f>SUM(F15:J15)/5</f>
         <v>0.15979511096535443</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="94" cm="1">
+      <c r="O15" s="93" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2382</v>
+        <v>2.2155</v>
       </c>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="94">
         <v>3.6279137670932896E-2</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C16" s="94">
         <v>5.6920146373251795E-2</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <v>5.9138832284929568E-2</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="94">
         <v>8.2190112833833914E-2</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="90">
+      <c r="O16" s="89">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="100" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="101">
+      <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12624738400000002</v>
+        <v>0.12727180000000002</v>
       </c>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="115" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="str" cm="1">
+      <c r="A19" s="116" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Electronic Equipment &amp; Parts</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118" cm="1">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="103">
+      <c r="O19" s="102">
         <f>O6+O7</f>
         <v>783400000</v>
       </c>
       <c r="P19" s="43"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="str" cm="1">
+      <c r="A20" s="111" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="103" cm="1">
+      <c r="O20" s="102" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>4266595000</v>
+        <v>4275828000</v>
       </c>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="M21" s="81"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="103">
+      <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>5049995000</v>
+        <v>5059228000</v>
       </c>
       <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="74" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="103">
         <f>(O19/O21)</f>
-        <v>0.15512886646422422</v>
+        <v>0.15484575907628595</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="100" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="105">
+      <c r="O23" s="104">
         <f>O20/O21</f>
-        <v>0.84487113353577581</v>
+        <v>0.84515424092371405</v>
       </c>
       <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="106" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="107"/>
+      <c r="O24" s="106"/>
       <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="108">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="107">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11851686271641787</v>
-      </c>
-      <c r="O25" s="109"/>
+        <v>0.11939676030542933</v>
+      </c>
+      <c r="O25" s="108"/>
       <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="43"/>
       <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
       <c r="O27" s="43"/>
       <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
       <c r="O28" s="43"/>
       <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
     </row>
@@ -16806,526 +16911,526 @@
       <c r="P32" s="43"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="43"/>

--- a/Technology/Hardware/Celestica.xlsx
+++ b/Technology/Hardware/Celestica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75F8F5-EDE9-994D-A1C5-FD6DA7296253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD7606-D384-2A4A-A234-83FA8659B68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -722,9 +722,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -834,6 +831,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1003,6 +1009,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1086,7 +1098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1131,65 +1143,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1198,23 +1153,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,7 +1249,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1232,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,251 +1460,261 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,13 +1749,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1596,7 +1769,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1608,9 +1781,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1737,10 +1907,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>37.58</v>
-    <v>14.15</v>
-    <v>2.2155</v>
-    <v>-0.75</v>
-    <v>-2.1007999999999999E-2</v>
+    <v>14.305</v>
+    <v>2.2256999999999998</v>
+    <v>-0.66</v>
+    <v>-1.9175000000000001E-2</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -1750,25 +1920,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>36.01</v>
+    <v>34.770000000000003</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45224.844201388885</v>
+    <v>45239.875</v>
     <v>0</v>
-    <v>34.64</v>
-    <v>4275828000</v>
+    <v>33.659999999999997</v>
+    <v>4115817000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>36</v>
-    <v>19.11</v>
-    <v>35.700000000000003</v>
-    <v>34.950000000000003</v>
-    <v>34.950000000000003</v>
-    <v>119352600</v>
+    <v>34.64</v>
+    <v>14.79</v>
+    <v>34.42</v>
+    <v>33.76</v>
+    <v>33.76</v>
+    <v>119359600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XTSE:CLS)</v>
-    <v>474575</v>
-    <v>391670</v>
+    <v>507600</v>
+    <v>631090</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1778,23 +1948,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1pv77&amp;q=XNYS%3aCLS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
     <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
     <v>6</v>
-    <v>Finance</v>
-    <v>7</v>
     <v>en-US</v>
     <v>a1pv77</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>27.58</v>
-    <v>10.33</v>
-    <v>2.2155</v>
-    <v>-0.7</v>
-    <v>-2.6912999999999999E-2</v>
+    <v>10.5</v>
+    <v>2.2256999999999998</v>
+    <v>-0.51</v>
+    <v>-2.0433E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1802,24 +1974,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>26.19</v>
+    <v>25.27</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45224.99993774297</v>
+    <v>45240.04155611094</v>
     <v>3</v>
-    <v>25.11</v>
-    <v>4275828000</v>
+    <v>24.37</v>
+    <v>4115817000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>26.15</v>
-    <v>18.316299999999998</v>
-    <v>26.01</v>
-    <v>25.31</v>
-    <v>119352600</v>
+    <v>25.09</v>
+    <v>14.540900000000001</v>
+    <v>24.96</v>
+    <v>24.45</v>
+    <v>24.45</v>
+    <v>119359600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
-    <v>16</v>
-    <v>1825691</v>
+    <v>992859</v>
+    <v>2253352</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1829,7 +2002,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -1884,56 +2057,12 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="1">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -1981,52 +2110,8 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="42">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="8">
+  <spbData count="7">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2077,12 +2162,7 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2103,20 +2183,26 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="6">
-      <v>Delayed 15 minutes</v>
+    <spb s="5">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2168,33 +2254,14 @@
     <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-  </s>
-  <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2583,9 +2650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A167" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12805,8 +12872,8 @@
       <c r="N172" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="5" t="s">
-        <v>24</v>
+      <c r="O172" s="5">
+        <v>0</v>
       </c>
       <c r="P172" s="4" t="s">
         <v>24</v>
@@ -15892,7 +15959,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A191:S195 A9:S11 A13:S13 A37:S128 A130:S142 A144:S188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A191:S195 A9:S11 A13:S13 A37:S128 A130:S142 A144:S171 A173:S188 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15902,7 +15969,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15910,1736 +15977,1799 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="110" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="e" vm="2">
+    <row r="1" spans="1:16" s="45" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-    </row>
-    <row r="2" spans="1:16" s="110" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" s="45" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" cm="1">
+      <c r="A3" s="72" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4275828000</v>
-      </c>
-      <c r="B3" s="36" t="s">
+        <v>4115817000</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="74">
         <f>Financials!O8*0.01</f>
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="74">
         <f>SUM(C11:E11)/3</f>
         <v>8.1043970530403533E-2</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="76">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-2.7815384497344886E-2</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="40">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3854740340.904171</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="77">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>3718198995.3775725</v>
+      </c>
+      <c r="J3" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="112" t="s">
+      <c r="K3" s="79">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="43"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="A4" s="81">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-422700000</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="37">
         <f>Financials!O17*0.01</f>
         <v>4.1299999999999996E-2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="37">
         <f>SUM(C13:E13)/3</f>
         <v>0.32564211745324989</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="84">
         <f>A5*(1+(5*G3))</f>
-        <v>102753407.70121098</v>
-      </c>
-      <c r="H4" s="49" t="s">
+        <v>102759434.16275357</v>
+      </c>
+      <c r="H4" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="50">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>3293179058.0466838</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="36">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>3172918755.4943624</v>
+      </c>
+      <c r="J4" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="39" cm="1">
+      <c r="K4" s="85" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.6912999999999999E-2</v>
-      </c>
-      <c r="L4" s="38" t="s">
+        <v>-2.0433E-2</v>
+      </c>
+      <c r="L4" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="114" t="s">
+      <c r="O4" s="105"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" cm="1">
+        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>119359600</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="43"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" cm="1">
-        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>119352600</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="51">
+      <c r="C5" s="37">
         <f>Financials!O34*0.01</f>
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="37">
+        <f>SUM(C16:E16)/3</f>
+        <v>9.754758650968183E-2</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="46">
-        <f>SUM(C15:E15)/3</f>
-        <v>9.754758650968183E-2</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="48">
+      <c r="G5" s="84">
         <f>Financials!O56</f>
         <v>360700000</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="36">
+        <f>I4+G5-G6</f>
+        <v>2750218755.4943624</v>
+      </c>
+      <c r="J5" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="50">
-        <f>I4+G5-G6</f>
-        <v>2870479058.0466838</v>
-      </c>
-      <c r="J5" s="47" t="s">
+      <c r="K5" s="88" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>24.45</v>
+      </c>
+      <c r="L5" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="52" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>25.31</v>
-      </c>
-      <c r="L5" s="45" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="54">
+      <c r="O5" s="107">
         <f>Financials!O21</f>
         <v>80600000</v>
       </c>
-      <c r="P5" s="43"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55">
+      <c r="A6" s="90">
         <f>O20/F10</f>
-        <v>0.54275552170601671</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="46">
+        <v>0.52244440213252097</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="37">
         <f>Financials!O190</f>
         <v>2.1394933166302903E-2</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="37">
         <f>Financials!O33/Financials!O126</f>
         <v>0.10014280614066405</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="50">
+      <c r="F6" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="84">
         <f>Financials!O96+Financials!O105</f>
         <v>783400000</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="85">
+        <f>N25</f>
+        <v>0.12286323982454023</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="57">
-        <f>N25</f>
-        <v>0.11939676030542933</v>
-      </c>
-      <c r="J6" s="49" t="s">
+      <c r="K6" s="38">
+        <f>I5/G4</f>
+        <v>26.763661924592547</v>
+      </c>
+      <c r="L6" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="58">
-        <f>I5/G4</f>
-        <v>27.935609360942436</v>
-      </c>
-      <c r="L6" s="59" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="61">
+      <c r="O6" s="107">
         <f>Financials!O96</f>
         <v>65400000</v>
       </c>
-      <c r="P6" s="43"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62">
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
         <f>O20/F12</f>
-        <v>15.645181119648738</v>
-      </c>
-      <c r="B7" s="63" t="s">
+        <v>15.059703622392975</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="94">
+        <f>F15/O21</f>
+        <v>4.4905134840934786E-2</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="64">
-        <f>F14/O21</f>
-        <v>4.3484895323950612E-2</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="66">
+      <c r="E7" s="95">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>9.731128246753247E-2</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="96">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.46614304415089847</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="98">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="69">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="70" t="s">
+      <c r="K7" s="100">
+        <f>K6/K5-1</f>
+        <v>9.4628299574337271E-2</v>
+      </c>
+      <c r="L7" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="118">
-        <f>K6/K5-1</f>
-        <v>0.10373802295307932</v>
-      </c>
-      <c r="L7" s="71" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="61">
+      <c r="O7" s="107">
         <f>Financials!O105</f>
         <v>718000000</v>
       </c>
-      <c r="P7" s="43"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="74">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="109">
         <f>O5/(O6+O7)</f>
         <v>0.10288486086290528</v>
       </c>
-      <c r="P8" s="43"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53">
         <v>2019</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="53">
         <v>2020</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="53">
         <v>2021</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="54">
         <v>2022</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="55">
         <v>2023</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="56">
         <v>2024</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="56">
         <v>2025</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="56">
         <v>2026</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="57">
         <v>2027</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="61">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="107">
         <f>Financials!O25</f>
         <v>58300000</v>
       </c>
-      <c r="P9" s="43"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="59">
+        <v>5888300000</v>
+      </c>
+      <c r="C10" s="59">
+        <v>5748100000</v>
+      </c>
+      <c r="D10" s="59">
+        <v>5634700000</v>
+      </c>
+      <c r="E10" s="60">
+        <v>7250000000</v>
+      </c>
+      <c r="F10" s="59">
+        <v>7878000000</v>
+      </c>
+      <c r="G10" s="59">
+        <v>8257000000</v>
+      </c>
+      <c r="H10" s="59">
+        <v>8474000000</v>
+      </c>
+      <c r="I10" s="59">
+        <v>8643000000</v>
+      </c>
+      <c r="J10" s="60">
+        <v>8816000000</v>
+      </c>
+      <c r="K10" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="82">
-        <v>5888300000</v>
-      </c>
-      <c r="C10" s="82">
-        <v>5748100000</v>
-      </c>
-      <c r="D10" s="82">
-        <v>5634700000</v>
-      </c>
-      <c r="E10" s="82">
-        <v>7250000000</v>
-      </c>
-      <c r="F10" s="83">
-        <v>7878000000</v>
-      </c>
-      <c r="G10" s="82">
-        <v>8257000000</v>
-      </c>
-      <c r="H10" s="82">
-        <v>8474000000</v>
-      </c>
-      <c r="I10" s="82">
-        <v>8643000000</v>
-      </c>
-      <c r="J10" s="82">
-        <v>8816000000</v>
-      </c>
-      <c r="K10" s="84" t="s">
+      <c r="N10" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="61">
+      <c r="O10" s="107">
         <f>Financials!O24</f>
         <v>226600000</v>
       </c>
-      <c r="P10" s="43"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86">
+      <c r="A11" s="62"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-2.3809928162627614E-2</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>-1.9728258033089197E-2</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0.28667009778692742</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>8.6620689655172445E-2</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="41">
         <f t="shared" si="0"/>
         <v>4.810865701954814E-2</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>2.6280731500544885E-2</v>
       </c>
-      <c r="I11" s="86">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>1.9943356148218072E-2</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="63">
         <f t="shared" si="0"/>
         <v>2.0016198079370495E-2</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="63">
         <f>SUM(F11:J11)/5</f>
         <v>4.019392648057081E-2</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="89">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="110">
         <f>O9/O10</f>
         <v>0.25728155339805825</v>
       </c>
-      <c r="P11" s="43"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="59">
         <v>70300000</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="59">
         <v>60600000</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="59">
         <v>103900000</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="59">
         <v>145500000</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="64">
         <v>273300000</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="59">
         <v>299000000</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="59">
         <v>283000000</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="59">
         <v>289000000</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="60">
         <v>295000000</v>
       </c>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="91">
+      <c r="O12" s="110">
         <f>O8*(1-O11)</f>
         <v>7.6414484038953928E-2</v>
       </c>
-      <c r="P12" s="43"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86">
+      <c r="A13" s="62"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.13798008534850636</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>0.71452145214521456</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>0.40038498556304147</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>0.87835051546391751</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="41">
         <f t="shared" si="1"/>
         <v>9.4035858031467301E-2</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>-5.3511705685618693E-2</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
         <v>2.1201413427561766E-2</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="63">
         <f t="shared" si="1"/>
         <v>2.076124567474058E-2</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="63">
         <f>SUM(F13:J13)/5</f>
         <v>0.19216746538241369</v>
       </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="114" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="105"/>
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="49">
+        <f>B12/B10</f>
+        <v>1.1938929742030807E-2</v>
+      </c>
+      <c r="C14" s="49">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>1.0542614081174649E-2</v>
+      </c>
+      <c r="D14" s="49">
+        <f t="shared" si="2"/>
+        <v>1.8439313539318863E-2</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="2"/>
+        <v>2.0068965517241379E-2</v>
+      </c>
+      <c r="F14" s="50">
+        <f t="shared" si="2"/>
+        <v>3.4691546077684689E-2</v>
+      </c>
+      <c r="G14" s="49">
+        <f t="shared" si="2"/>
+        <v>3.6211699164345405E-2</v>
+      </c>
+      <c r="H14" s="49">
+        <f t="shared" si="2"/>
+        <v>3.3396270946424354E-2</v>
+      </c>
+      <c r="I14" s="49">
+        <f t="shared" si="2"/>
+        <v>3.343746384357283E-2</v>
+      </c>
+      <c r="J14" s="51">
+        <f t="shared" si="2"/>
+        <v>3.3461887477313976E-2</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="110">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.5080000000000002E-2</v>
+      </c>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="59">
+        <v>133125890</v>
+      </c>
+      <c r="C15" s="59">
+        <v>150057077</v>
+      </c>
+      <c r="D15" s="59">
+        <v>174962000</v>
+      </c>
+      <c r="E15" s="59">
+        <v>174873000</v>
+      </c>
+      <c r="F15" s="64">
+        <v>220000000</v>
+      </c>
+      <c r="G15" s="59">
+        <v>302000000</v>
+      </c>
+      <c r="H15" s="59">
+        <v>335000000</v>
+      </c>
+      <c r="I15" s="59">
+        <v>348000000</v>
+      </c>
+      <c r="J15" s="60">
+        <v>355000000</v>
+      </c>
+      <c r="K15" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="82">
-        <v>133125890</v>
-      </c>
-      <c r="C14" s="82">
-        <v>150057077</v>
-      </c>
-      <c r="D14" s="82">
-        <v>174962000</v>
-      </c>
-      <c r="E14" s="82">
-        <v>174873000</v>
-      </c>
-      <c r="F14" s="83">
-        <v>220000000</v>
-      </c>
-      <c r="G14" s="82">
-        <v>302000000</v>
-      </c>
-      <c r="H14" s="82">
-        <v>335000000</v>
-      </c>
-      <c r="I14" s="82">
-        <v>348000000</v>
-      </c>
-      <c r="J14" s="82">
-        <v>355000000</v>
-      </c>
-      <c r="K14" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="60" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="89">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="111" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>2.2256999999999998</v>
+      </c>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.12718177508522199</v>
       </c>
-      <c r="D15" s="86">
-        <f t="shared" si="2"/>
+      <c r="D16" s="41">
+        <f t="shared" si="3"/>
         <v>0.16596966632903287</v>
       </c>
-      <c r="E15" s="86">
-        <f t="shared" si="2"/>
+      <c r="E16" s="41">
+        <f t="shared" si="3"/>
         <v>-5.0868188520936108E-4</v>
       </c>
-      <c r="F15" s="87">
-        <f t="shared" si="2"/>
+      <c r="F16" s="42">
+        <f t="shared" si="3"/>
         <v>0.25805584624270184</v>
       </c>
-      <c r="G15" s="86">
-        <f t="shared" si="2"/>
+      <c r="G16" s="41">
+        <f t="shared" si="3"/>
         <v>0.3727272727272728</v>
       </c>
-      <c r="H15" s="86">
-        <f t="shared" si="2"/>
+      <c r="H16" s="41">
+        <f t="shared" si="3"/>
         <v>0.10927152317880795</v>
       </c>
-      <c r="I15" s="86">
-        <f t="shared" si="2"/>
+      <c r="I16" s="41">
+        <f t="shared" si="3"/>
         <v>3.8805970149253799E-2</v>
       </c>
-      <c r="J15" s="86">
-        <f t="shared" si="2"/>
+      <c r="J16" s="63">
+        <f t="shared" si="3"/>
         <v>2.0114942528735691E-2</v>
       </c>
-      <c r="K15" s="88">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="63">
+        <f>SUM(F16:J16)/5</f>
         <v>0.15979511096535443</v>
       </c>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="60" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="93" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2155</v>
-      </c>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="O16" s="110">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="49">
+        <f>B15/B10</f>
+        <v>2.2608544061953364E-2</v>
+      </c>
+      <c r="C17" s="49">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>2.6105509124754265E-2</v>
+      </c>
+      <c r="D17" s="49">
+        <f t="shared" si="4"/>
+        <v>3.105081015848226E-2</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="4"/>
+        <v>2.4120413793103448E-2</v>
+      </c>
+      <c r="F17" s="49">
+        <f t="shared" si="4"/>
+        <v>2.7925869510027925E-2</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" si="4"/>
+        <v>3.6575027249606394E-2</v>
+      </c>
+      <c r="H17" s="49">
+        <f t="shared" si="4"/>
+        <v>3.9532688222799151E-2</v>
+      </c>
+      <c r="I17" s="49">
+        <f t="shared" si="4"/>
+        <v>4.0263797292606734E-2</v>
+      </c>
+      <c r="J17" s="51">
+        <f t="shared" si="4"/>
+        <v>4.0267695099818514E-2</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="113">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.131704244</v>
+      </c>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="94">
+      <c r="B18" s="68">
         <v>3.6279137670932896E-2</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C18" s="68">
         <v>5.6920146373251795E-2</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D18" s="68">
         <v>5.9138832284929568E-2</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E18" s="68">
         <v>8.2190112833833914E-2</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="60" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="89">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="100">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12727180000000002</v>
-      </c>
-      <c r="P17" s="43"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="43"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Electronic Equipment &amp; Parts</v>
-      </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1996</v>
-      </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="102">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="114">
         <f>O6+O7</f>
         <v>783400000</v>
       </c>
-      <c r="P19" s="43"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="114" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>4115817000</v>
+      </c>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Electronic Equipment &amp; Parts</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1996</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="114">
+        <f>O19+O20</f>
+        <v>4899217000</v>
+      </c>
+      <c r="P21" s="35"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="102" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>4275828000</v>
-      </c>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="60" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="102">
-        <f>O19+O20</f>
-        <v>5059228000</v>
-      </c>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="73" t="s">
+      <c r="O22" s="115">
+        <f>(O19/O21)</f>
+        <v>0.15990310288358323</v>
+      </c>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="103">
-        <f>(O19/O21)</f>
-        <v>0.15484575907628595</v>
-      </c>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="99" t="s">
+      <c r="O23" s="116">
+        <f>O20/O21</f>
+        <v>0.84009689711641677</v>
+      </c>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="104">
-        <f>O20/O21</f>
-        <v>0.84515424092371405</v>
-      </c>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="105" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="106"/>
-      <c r="P24" s="43"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="107">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="119">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11939676030542933</v>
-      </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="43"/>
+        <v>0.12286323982454023</v>
+      </c>
+      <c r="O25" s="120"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A20:E26"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:CLS/explorer/revenue_proj/" xr:uid="{0FE01E9F-16D7-5F4D-A75F-0CC00C7F4501}"/>

--- a/Technology/Hardware/Celestica.xlsx
+++ b/Technology/Hardware/Celestica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD7606-D384-2A4A-A234-83FA8659B68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761B3CB-47C3-044E-A7C6-2A225C94CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1485,18 +1485,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1659,18 +1647,6 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1715,6 +1691,30 @@
     </xf>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1769,7 +1769,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1906,11 +1906,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>37.58</v>
+    <v>38.950000000000003</v>
     <v>14.305</v>
-    <v>2.2256999999999998</v>
-    <v>-0.66</v>
-    <v>-1.9175000000000001E-2</v>
+    <v>2.2189000000000001</v>
+    <v>0.08</v>
+    <v>2.1879999999999998E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -1920,25 +1920,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>34.770000000000003</v>
+    <v>37.270000000000003</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45239.875</v>
+    <v>45261.875</v>
     <v>0</v>
-    <v>33.659999999999997</v>
-    <v>4115817000</v>
+    <v>35.33</v>
+    <v>4355115000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>34.64</v>
-    <v>14.79</v>
-    <v>34.42</v>
-    <v>33.76</v>
-    <v>33.76</v>
+    <v>36.33</v>
+    <v>16.014600000000002</v>
+    <v>36.56</v>
+    <v>36.64</v>
+    <v>36.64</v>
     <v>119359600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XTSE:CLS)</v>
-    <v>507600</v>
-    <v>631090</v>
+    <v>629745</v>
+    <v>392640</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1960,13 +1960,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>27.58</v>
+    <v>28.39</v>
     <v>10.5</v>
-    <v>2.2256999999999998</v>
-    <v>-0.51</v>
-    <v>-2.0433E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>2.2189000000000001</v>
+    <v>0.17</v>
+    <v>6.3060000000000008E-3</v>
+    <v>0.1</v>
+    <v>3.686E-3</v>
     <v>USD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1974,25 +1974,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>25.27</v>
+    <v>27.62</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45240.04155611094</v>
+    <v>45262.040489721876</v>
     <v>3</v>
-    <v>24.37</v>
-    <v>4115817000</v>
+    <v>26.15</v>
+    <v>4355115000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>25.09</v>
-    <v>14.540900000000001</v>
-    <v>24.96</v>
-    <v>24.45</v>
-    <v>24.45</v>
+    <v>26.77</v>
+    <v>16.0337</v>
+    <v>26.96</v>
+    <v>27.13</v>
+    <v>27.23</v>
     <v>119359600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
-    <v>992859</v>
-    <v>2253352</v>
+    <v>3061764</v>
+    <v>1939362</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -15969,7 +15969,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15977,297 +15977,297 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="45" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="e" vm="2">
+    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:16" s="45" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" cm="1">
+      <c r="A3" s="68" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4115817000</v>
-      </c>
-      <c r="B3" s="73" t="s">
+        <v>4355115000</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="70">
         <f>Financials!O8*0.01</f>
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="70">
         <f>SUM(C11:E11)/3</f>
         <v>8.1043970530403533E-2</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="72">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-2.7815384497344886E-2</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="73">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3718198995.3775725</v>
-      </c>
-      <c r="J3" s="78" t="s">
+        <v>3620681672.2675571</v>
+      </c>
+      <c r="J3" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="75">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="76" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="35"/>
-      <c r="N3" s="102" t="s">
+      <c r="N3" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="103"/>
+      <c r="O3" s="116"/>
       <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81">
+      <c r="A4" s="77">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-422700000</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="78" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="37">
         <f>Financials!O17*0.01</f>
         <v>4.1299999999999996E-2</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="78" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="37">
         <f>SUM(C13:E13)/3</f>
         <v>0.32564211745324989</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="80">
         <f>A5*(1+(5*G3))</f>
         <v>102759434.16275357</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="79" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="36">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>3172918755.4943624</v>
-      </c>
-      <c r="J4" s="83" t="s">
+        <v>3087046773.6755781</v>
+      </c>
+      <c r="J4" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="85" cm="1">
+      <c r="K4" s="81" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.0433E-2</v>
-      </c>
-      <c r="L4" s="86" t="s">
+        <v>6.3060000000000008E-3</v>
+      </c>
+      <c r="L4" s="82" t="s">
         <v>251</v>
       </c>
       <c r="M4" s="35"/>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="105"/>
+      <c r="O4" s="118"/>
       <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" cm="1">
+      <c r="A5" s="77" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>119359600</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="78" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="37">
         <f>Financials!O34*0.01</f>
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="83" t="s">
         <v>214</v>
       </c>
       <c r="E5" s="37">
         <f>SUM(C16:E16)/3</f>
         <v>9.754758650968183E-2</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="80">
         <f>Financials!O56</f>
         <v>360700000</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="79" t="s">
         <v>216</v>
       </c>
       <c r="I5" s="36">
         <f>I4+G5-G6</f>
-        <v>2750218755.4943624</v>
-      </c>
-      <c r="J5" s="83" t="s">
+        <v>2664346773.6755781</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="88" cm="1">
+      <c r="K5" s="84" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>24.45</v>
-      </c>
-      <c r="L5" s="89" t="s">
+        <v>27.13</v>
+      </c>
+      <c r="L5" s="85" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="35"/>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="107">
+      <c r="O5" s="99">
         <f>Financials!O21</f>
         <v>80600000</v>
       </c>
       <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90">
+      <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>0.52244440213252097</v>
-      </c>
-      <c r="B6" s="82" t="s">
+        <v>0.55281987814166034</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="37">
         <f>Financials!O190</f>
         <v>2.1394933166302903E-2</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="83" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="37">
         <f>Financials!O33/Financials!O126</f>
         <v>0.10014280614066405</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="80">
         <f>Financials!O96+Financials!O105</f>
         <v>783400000</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="81">
         <f>N25</f>
-        <v>0.12286323982454023</v>
-      </c>
-      <c r="J6" s="83" t="s">
+        <v>0.1254990311043038</v>
+      </c>
+      <c r="J6" s="79" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="38">
         <f>I5/G4</f>
-        <v>26.763661924592547</v>
-      </c>
-      <c r="L6" s="91" t="s">
+        <v>25.928001602808589</v>
+      </c>
+      <c r="L6" s="87" t="s">
         <v>224</v>
       </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="106" t="s">
+      <c r="N6" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="107">
+      <c r="O6" s="99">
         <f>Financials!O96</f>
         <v>65400000</v>
       </c>
       <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="88">
         <f>O20/F12</f>
-        <v>15.059703622392975</v>
-      </c>
-      <c r="B7" s="93" t="s">
+        <v>15.935290889132821</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="90">
         <f>F15/O21</f>
-        <v>4.4905134840934786E-2</v>
-      </c>
-      <c r="D7" s="93" t="s">
+        <v>4.2813925813197005E-2</v>
+      </c>
+      <c r="D7" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="91">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>9.731128246753247E-2</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="92">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.46614304415089847</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="94">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="96">
         <f>K6/K5-1</f>
-        <v>9.4628299574337271E-2</v>
-      </c>
-      <c r="L7" s="101" t="s">
+        <v>-4.43051381198456E-2</v>
+      </c>
+      <c r="L7" s="97" t="s">
         <v>230</v>
       </c>
       <c r="M7" s="35"/>
-      <c r="N7" s="106" t="s">
+      <c r="N7" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="107">
+      <c r="O7" s="99">
         <f>Financials!O105</f>
         <v>718000000</v>
       </c>
@@ -16287,101 +16287,102 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="109">
+      <c r="O8" s="101">
         <f>O5/(O6+O7)</f>
         <v>0.10288486086290528</v>
       </c>
       <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49">
         <v>2019</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="49">
         <v>2020</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="49">
         <v>2021</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="50">
         <v>2022</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="51">
         <v>2023</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="52">
         <v>2024</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="52">
         <v>2025</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="52">
         <v>2026</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="53">
         <v>2027</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
-      <c r="N9" s="106" t="s">
+      <c r="N9" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="107">
+      <c r="O9" s="99">
         <f>Financials!O25</f>
         <v>58300000</v>
       </c>
       <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="55">
         <v>5888300000</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="55">
         <v>5748100000</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="55">
         <v>5634700000</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="56">
         <v>7250000000</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="55">
         <v>7878000000</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="55">
         <v>8257000000</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="55">
         <v>8474000000</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="55">
         <v>8643000000</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="56">
         <v>8816000000</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="106" t="s">
+      <c r="L10" s="40"/>
+      <c r="N10" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="107">
+      <c r="O10" s="99">
         <f>Financials!O24</f>
         <v>226600000</v>
       </c>
       <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16411,72 +16412,72 @@
         <f t="shared" si="0"/>
         <v>1.9943356148218072E-2</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="59">
         <f t="shared" si="0"/>
         <v>2.0016198079370495E-2</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="59">
         <f>SUM(F11:J11)/5</f>
         <v>4.019392648057081E-2</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="106" t="s">
+      <c r="N11" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="110">
+      <c r="O11" s="102">
         <f>O9/O10</f>
         <v>0.25728155339805825</v>
       </c>
       <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="55">
         <v>70300000</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="55">
         <v>60600000</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="55">
         <v>103900000</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="55">
         <v>145500000</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="60">
         <v>273300000</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="55">
         <v>299000000</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="55">
         <v>283000000</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="55">
         <v>289000000</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="56">
         <v>295000000</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="61" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="106" t="s">
+      <c r="N12" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="110">
+      <c r="O12" s="102">
         <f>O8*(1-O11)</f>
         <v>7.6414484038953928E-2</v>
       </c>
       <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16506,121 +16507,121 @@
         <f t="shared" si="1"/>
         <v>2.1201413427561766E-2</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="59">
         <f t="shared" si="1"/>
         <v>2.076124567474058E-2</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="59">
         <f>SUM(F13:J13)/5</f>
         <v>0.19216746538241369</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="105"/>
+      <c r="O13" s="118"/>
       <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="45">
         <f>B12/B10</f>
         <v>1.1938929742030807E-2</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="45">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>1.0542614081174649E-2</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="45">
         <f t="shared" si="2"/>
         <v>1.8439313539318863E-2</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="45">
         <f t="shared" si="2"/>
         <v>2.0068965517241379E-2</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="46">
         <f t="shared" si="2"/>
         <v>3.4691546077684689E-2</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="45">
         <f t="shared" si="2"/>
         <v>3.6211699164345405E-2</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="45">
         <f t="shared" si="2"/>
         <v>3.3396270946424354E-2</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="45">
         <f t="shared" si="2"/>
         <v>3.343746384357283E-2</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="47">
         <f t="shared" si="2"/>
         <v>3.3461887477313976E-2</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="106" t="s">
+      <c r="N14" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="O14" s="110">
+      <c r="O14" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="55">
         <v>133125890</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="55">
         <v>150057077</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="55">
         <v>174962000</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="55">
         <v>174873000</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="60">
         <v>220000000</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="55">
         <v>302000000</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="55">
         <v>335000000</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="55">
         <v>348000000</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="56">
         <v>355000000</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="61" t="s">
         <v>240</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
-      <c r="N15" s="106" t="s">
+      <c r="N15" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="111" cm="1">
+      <c r="O15" s="103" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2256999999999998</v>
+        <v>2.2189000000000001</v>
       </c>
       <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16650,104 +16651,104 @@
         <f t="shared" si="3"/>
         <v>3.8805970149253799E-2</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="59">
         <f t="shared" si="3"/>
         <v>2.0114942528735691E-2</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="59">
         <f>SUM(F16:J16)/5</f>
         <v>0.15979511096535443</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="106" t="s">
+      <c r="N16" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="110">
+      <c r="O16" s="102">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="35"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="45">
         <f>B15/B10</f>
         <v>2.2608544061953364E-2</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="45">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>2.6105509124754265E-2</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="45">
         <f t="shared" si="4"/>
         <v>3.105081015848226E-2</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="47">
         <f t="shared" si="4"/>
         <v>2.4120413793103448E-2</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="45">
         <f t="shared" si="4"/>
         <v>2.7925869510027925E-2</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="45">
         <f t="shared" si="4"/>
         <v>3.6575027249606394E-2</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="45">
         <f t="shared" si="4"/>
         <v>3.9532688222799151E-2</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="45">
         <f t="shared" si="4"/>
         <v>4.0263797292606734E-2</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="47">
         <f t="shared" si="4"/>
         <v>4.0267695099818514E-2</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="112" t="s">
+      <c r="N17" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="113">
+      <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.131704244</v>
+        <v>0.13432838100000002</v>
       </c>
       <c r="P17" s="35"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="64">
         <v>3.6279137670932896E-2</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="64">
         <v>5.6920146373251795E-2</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="64">
         <v>5.9138832284929568E-2</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="64">
         <v>8.2190112833833914E-2</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="104" t="s">
+      <c r="N18" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="105"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16764,10 +16765,10 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="106" t="s">
+      <c r="N19" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="114">
+      <c r="O19" s="106">
         <f>O6+O7</f>
         <v>783400000</v>
       </c>
@@ -16787,26 +16788,26 @@
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="106" t="s">
+      <c r="N20" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="114" cm="1">
+      <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>4115817000</v>
+        <v>4355115000</v>
       </c>
       <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="str" cm="1">
+      <c r="A21" s="119" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Electronic Equipment &amp; Parts</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47" cm="1">
+      <c r="B21" s="119"/>
+      <c r="C21" s="120" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="43"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -16815,24 +16816,24 @@
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="106" t="s">
+      <c r="N21" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="114">
+      <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>4899217000</v>
+        <v>5138515000</v>
       </c>
       <c r="P21" s="35"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="str" cm="1">
+      <c r="A22" s="119" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -16841,21 +16842,21 @@
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="108" t="s">
+      <c r="N22" s="100" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="115">
+      <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.15990310288358323</v>
+        <v>0.15245649764572061</v>
       </c>
       <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -16864,21 +16865,21 @@
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="112" t="s">
+      <c r="N23" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="116">
+      <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.84009689711641677</v>
+        <v>0.84754350235427944</v>
       </c>
       <c r="P23" s="35"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -16887,18 +16888,18 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="117" t="s">
+      <c r="N24" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="118"/>
+      <c r="O24" s="110"/>
       <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -16907,19 +16908,19 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="119">
+      <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.12286323982454023</v>
-      </c>
-      <c r="O25" s="120"/>
+        <v>0.1254990311043038</v>
+      </c>
+      <c r="O25" s="112"/>
       <c r="P25" s="35"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -16933,11 +16934,11 @@
       <c r="P26" s="35"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -16951,11 +16952,11 @@
       <c r="P27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -16969,11 +16970,11 @@
       <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -16987,11 +16988,11 @@
       <c r="P29" s="35"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>

--- a/Technology/Hardware/Celestica.xlsx
+++ b/Technology/Hardware/Celestica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761B3CB-47C3-044E-A7C6-2A225C94CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F6B0F-2CEA-364E-9332-535040023CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1710,11 +1710,14 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1751,7 +1754,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1769,7 +1775,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1781,6 +1787,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1908,9 +1917,9 @@
     <v>Powered by Refinitiv</v>
     <v>38.950000000000003</v>
     <v>14.305</v>
-    <v>2.2189000000000001</v>
-    <v>0.08</v>
-    <v>2.1879999999999998E-3</v>
+    <v>2.2044000000000001</v>
+    <v>0.69</v>
+    <v>1.9023999999999999E-2</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -1920,25 +1929,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>37.270000000000003</v>
+    <v>37.25</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45261.875</v>
+    <v>45268.875</v>
     <v>0</v>
-    <v>35.33</v>
-    <v>4355115000</v>
+    <v>36.06</v>
+    <v>4330127000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>36.33</v>
-    <v>16.014600000000002</v>
-    <v>36.56</v>
-    <v>36.64</v>
-    <v>36.64</v>
+    <v>36.07</v>
+    <v>15.887600000000001</v>
+    <v>36.270000000000003</v>
+    <v>36.96</v>
+    <v>36.96</v>
     <v>119359600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XTSE:CLS)</v>
-    <v>629745</v>
-    <v>392640</v>
+    <v>452792</v>
+    <v>471580</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1962,11 +1971,11 @@
     <v>Powered by Refinitiv</v>
     <v>28.39</v>
     <v>10.5</v>
-    <v>2.2189000000000001</v>
-    <v>0.17</v>
-    <v>6.3060000000000008E-3</v>
-    <v>0.1</v>
-    <v>3.686E-3</v>
+    <v>2.2044000000000001</v>
+    <v>0.54500000000000004</v>
+    <v>2.0449999999999999E-2</v>
+    <v>0.11</v>
+    <v>4.0460000000000001E-3</v>
     <v>USD</v>
     <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
     <v>26324</v>
@@ -1974,25 +1983,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5140 Yonge Street, Suite 1900, TORONTO, ON, M2N 6L7 CA</v>
-    <v>27.62</v>
+    <v>27.423999999999999</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45262.040489721876</v>
+    <v>45269.034754432811</v>
     <v>3</v>
-    <v>26.15</v>
-    <v>4355115000</v>
+    <v>26.45</v>
+    <v>4330127000</v>
     <v>CELESTICA INC.</v>
     <v>CELESTICA INC.</v>
-    <v>26.77</v>
-    <v>16.0337</v>
-    <v>26.96</v>
-    <v>27.13</v>
-    <v>27.23</v>
+    <v>26.5</v>
+    <v>15.849299999999999</v>
+    <v>26.65</v>
+    <v>27.195</v>
+    <v>27.3</v>
     <v>119359600</v>
     <v>CLS</v>
     <v>CELESTICA INC. (XNYS:CLS)</v>
-    <v>3061764</v>
-    <v>1939362</v>
+    <v>1286692</v>
+    <v>1653845</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -15969,7 +15978,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16018,7 +16027,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>4355115000</v>
+        <v>4330127000</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>201</v>
@@ -16046,7 +16055,7 @@
       </c>
       <c r="I3" s="73">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3620681672.2675571</v>
+        <v>3585726822.4126763</v>
       </c>
       <c r="J3" s="74" t="s">
         <v>205</v>
@@ -16096,14 +16105,14 @@
       </c>
       <c r="I4" s="36">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>3087046773.6755781</v>
+        <v>3056269952.9418416</v>
       </c>
       <c r="J4" s="79" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="81" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.3060000000000008E-3</v>
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="L4" s="82" t="s">
         <v>251</v>
@@ -16146,14 +16155,14 @@
       </c>
       <c r="I5" s="36">
         <f>I4+G5-G6</f>
-        <v>2664346773.6755781</v>
+        <v>2633569952.9418416</v>
       </c>
       <c r="J5" s="79" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="84" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>27.13</v>
+        <v>27.195</v>
       </c>
       <c r="L5" s="85" t="s">
         <v>218</v>
@@ -16171,7 +16180,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>0.55281987814166034</v>
+        <v>0.54964800710840311</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>220</v>
@@ -16199,14 +16208,14 @@
       </c>
       <c r="I6" s="81">
         <f>N25</f>
-        <v>0.1254990311043038</v>
+        <v>0.12647872886623432</v>
       </c>
       <c r="J6" s="79" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="38">
         <f>I5/G4</f>
-        <v>25.928001602808589</v>
+        <v>25.628498000200274</v>
       </c>
       <c r="L6" s="87" t="s">
         <v>224</v>
@@ -16224,14 +16233,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <f>O20/F12</f>
-        <v>15.935290889132821</v>
+        <v>15.843860226856934</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="90">
         <f>F15/O21</f>
-        <v>4.2813925813197005E-2</v>
+        <v>4.3023142343826482E-2</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>227</v>
@@ -16258,7 +16267,7 @@
       </c>
       <c r="K7" s="96">
         <f>K6/K5-1</f>
-        <v>-4.43051381198456E-2</v>
+        <v>-5.7602573995209627E-2</v>
       </c>
       <c r="L7" s="97" t="s">
         <v>230</v>
@@ -16571,7 +16580,7 @@
       </c>
       <c r="O14" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
     </row>
@@ -16616,7 +16625,7 @@
       </c>
       <c r="O15" s="103" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2189000000000001</v>
+        <v>2.2044000000000001</v>
       </c>
       <c r="P15" s="35"/>
     </row>
@@ -16717,7 +16726,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13432838100000002</v>
+        <v>0.13553627600000001</v>
       </c>
       <c r="P17" s="35"/>
     </row>
@@ -16793,7 +16802,7 @@
       </c>
       <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>4355115000</v>
+        <v>4330127000</v>
       </c>
       <c r="P20" s="35"/>
     </row>
@@ -16821,19 +16830,19 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>5138515000</v>
+        <v>5113527000</v>
       </c>
       <c r="P21" s="35"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="119" t="str" cm="1">
+      <c r="A22" s="121" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Celestica Inc. is engaged in designing, manufacturing, hardware platform and supply chain solutions. The Company operates in two segments: Advanced Technology Solutions (ATS) and Connectivity &amp; Cloud Solutions (CCS). The ATS segment consists of its ATS end market and is comprised of its Aerospace &amp; Defense (A&amp;D), Industrial, HealthTech, and Capital Equipment businesses. Its Capital Equipment business is comprised of its semiconductor, display, and robotics equipment businesses. The CCS segment consists of its communications and enterprise end markets. The enterprise end market is comprised of Celestica’s servers and storage businesses. It offers a range of product manufacturing and related supply chain services to customers in both of its segments, including design and development, new product introduction, engineering services, component sourcing, electronics manufacturing and assembly, testing, complex mechanical assembly, systems integration, precision machining and others.</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -16847,16 +16856,16 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.15245649764572061</v>
+        <v>0.15320149869160757</v>
       </c>
       <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -16870,16 +16879,16 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.84754350235427944</v>
+        <v>0.8467985013083924</v>
       </c>
       <c r="P23" s="35"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -16895,11 +16904,11 @@
       <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -16910,17 +16919,17 @@
       <c r="M25" s="40"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.1254990311043038</v>
+        <v>0.12647872886623432</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="35"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -16934,11 +16943,11 @@
       <c r="P26" s="35"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -16952,11 +16961,11 @@
       <c r="P27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -16970,11 +16979,11 @@
       <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -16988,11 +16997,11 @@
       <c r="P29" s="35"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
